--- a/성적관리프로그램/Entity/성적_출석.xlsx
+++ b/성적관리프로그램/Entity/성적_출석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlarb\Coding\학교\3학년 2학기\인공지능 2\성적관리프로그램\Entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55338393-BB1C-429B-9137-16CDA54CE197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657B18A3-2398-4A53-8997-5F0BB9FB0382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{AAF0CEE5-754B-4C97-BB3E-9F184B2523C9}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2341239B-4669-4645-ADFB-E7CFBFC6ABD8}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -577,8 +577,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f ca="1">RANDBETWEEN(60, 100)</f>
-        <v>78</v>
+        <f ca="1">RANDBETWEEN(55, 100)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -586,8 +586,8 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f ca="1">RANDBETWEEN(70, 100)</f>
-        <v>71</v>
+        <f t="shared" ref="B4:B41" ca="1" si="0">RANDBETWEEN(55, 100)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -595,8 +595,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B41" ca="1" si="0">RANDBETWEEN(70, 100)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -605,7 +605,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -614,7 +614,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -623,7 +623,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -632,13 +632,17 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -646,7 +650,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -655,7 +659,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -664,7 +668,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -673,7 +677,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -681,7 +685,8 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -690,7 +695,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -699,7 +704,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -708,7 +713,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -717,7 +722,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -726,7 +731,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -735,7 +740,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -744,7 +749,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -753,7 +758,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -762,7 +767,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -771,7 +776,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -779,7 +784,8 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -788,7 +794,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -797,7 +803,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -806,7 +812,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -815,7 +821,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -824,7 +830,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -833,7 +839,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -842,13 +848,17 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>33</v>
       </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
@@ -856,7 +866,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -865,7 +875,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -874,7 +884,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -883,7 +893,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -892,7 +902,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -901,7 +911,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -910,7 +920,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
